--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -106,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Alias: "超能"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
   </si>
   <si>
     <t>Alias: "格斗士"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>格斗士</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -508,7 +500,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E3" sqref="E3:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -523,7 +515,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
@@ -559,11 +551,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -579,11 +568,8 @@
       <c r="D4">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -55,12 +55,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="D2" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Administrator:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+列可以自由调整位置</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -115,6 +141,30 @@
   </si>
   <si>
     <t>Alias: "格斗士"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ObjectType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FieldType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Meta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -497,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E4"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -509,8 +559,8 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5" customWidth="1"/>
-    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
@@ -518,57 +568,77 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
         <v>21</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>

--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -27,6 +27,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Administrator</author>
+    <author>Davy</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0">
@@ -81,12 +82,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="E2" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Davy:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+别名,字段在使用时, 可直接使用别名</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,18 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alias: "超能"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "Globals" Package: "gamedef"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Alias: "格斗士"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,6 +184,22 @@
   </si>
   <si>
     <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Alias</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格斗士</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -559,36 +594,40 @@
     <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.625" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,13 +641,16 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -622,10 +664,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -639,7 +681,7 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -159,10 +159,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TableName: "Globals" Package: "gamedef"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -200,6 +196,10 @@
   </si>
   <si>
     <t>超能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TableName: "Globals" Package: "table"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -317,6 +317,99 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="文本框 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="1371600"/>
+          <a:ext cx="3571875" cy="1057275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>Globals</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>表中保存全局类型信息</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>方便其他表引用</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" baseline="0"/>
+            <a:t>, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" baseline="0"/>
+            <a:t>且在导出时放在第一个位置</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -585,7 +678,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -601,30 +694,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -641,7 +734,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -664,7 +757,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -681,13 +774,14 @@
         <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="@Types" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -323,16 +324,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>695325</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -341,7 +342,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="495300" y="1371600"/>
+          <a:off x="2743200" y="2571750"/>
           <a:ext cx="3571875" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -678,7 +679,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -781,7 +782,22 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/exportorv2/sample/Globals.xlsx
+++ b/exportorv2/sample/Globals.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\wukong\server\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\opensource\src\github.com\davyxu\tabtoy\exportorv2\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>字段名</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -144,10 +144,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fighter</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>int32</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -156,10 +152,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Power</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ObjectType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -192,15 +184,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>格斗士</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TableName: "Globals" Package: "table"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>唐僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙悟空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猪八戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沙僧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Monkey</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hammer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leader</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -676,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -695,30 +711,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" x14ac:dyDescent="0.15">
@@ -735,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>1</v>
@@ -749,33 +765,67 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
